--- a/biology/Botanique/Xanthorrhoea/Xanthorrhoea.xlsx
+++ b/biology/Botanique/Xanthorrhoea/Xanthorrhoea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthorrhoea est un genre de plantes à fleurs monocotylédones de la famille des Xanthorrhoeaceae, originaires d'Australie.
 Il doit son nom à la résine jaune qu'il produit et qui était utilisée comme colle par les aborigènes
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes vivaces qui peuvent avoir un tronc ou pas. Le tronc peut ne pas porter de branches ou en avoir de multiples selon les espèces. Les feuilles, étroites, sont regroupées en couronnes au sommet de la plante. La croissance du tronc est très lente: 2,5 centimètres par an en moyenne.
 Les fleurs, blanches ou crème, poussent sur une hampe pouvant atteindre 2 mètres de long. La floraison a lieu au printemps mais pas toutes les années. Au printemps suivant un feu de forêt la plante produit beaucoup plus de fleurs. Les fleurs, riches en nectar, étaient utilisées par les Aborigènes pour être mises dans l'eau et lui donner ainsi un goût agréable. La hampe servait de lance pour attraper les poissons.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve ce genre en Tasmanie, dans l'État de Victoria, dans le sud de la Nouvelle-Galles du Sud et l'est de l'Australie-Méridionale
 </t>
@@ -575,7 +591,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il en existe 28 espèces :
 Xanthorrhoea acanthostachya
